--- a/outputs/ML_Results/carown_LR_new/Dresden.xlsx
+++ b/outputs/ML_Results/carown_LR_new/Dresden.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ0" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ6" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ14" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ12" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ20" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ2" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ10" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ7" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ0" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ5" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ6" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ8" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ19" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2.869532753773563</v>
+        <v>-1.953811942770429</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2509407950039358</v>
+        <v>0.425182404604165</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2286088470405341</v>
+        <v>0.1577283869406464</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5546470022899834</v>
+        <v>0.6864331321537505</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.815123308305766</v>
+        <v>-1.790361318539355</v>
       </c>
       <c r="C4" t="n">
-        <v>2.717233270917013e-09</v>
+        <v>4.01935162856811e-09</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1.079842462242857</v>
+        <v>-1.216498666510281</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001372163387643026</v>
+        <v>0.0002250663283323487</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.077382060974315</v>
+        <v>-0.9143969533111457</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01299691349851266</v>
+        <v>0.03300588836760163</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.2221882796871443</v>
+        <v>-0.238314593079679</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1729610221739103</v>
+        <v>0.1470322501552495</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0004904798115634863</v>
+        <v>0.0005291567803189052</v>
       </c>
       <c r="C8" t="n">
-        <v>3.094315312841661e-06</v>
+        <v>4.609027329201701e-07</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02409372238443567</v>
+        <v>0.02000753404355578</v>
       </c>
       <c r="C9" t="n">
-        <v>0.004586566264238804</v>
+        <v>0.01758387509665474</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1060436954634382</v>
+        <v>-0.1312983007549266</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6190783175624092</v>
+        <v>0.5347535646353687</v>
       </c>
     </row>
     <row r="11">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.804844785225808</v>
+        <v>0.7825229239922434</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02035571100682532</v>
+        <v>0.02363244865153542</v>
       </c>
     </row>
     <row r="12">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1292372558961029</v>
+        <v>0.2281481647145592</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7741719193404017</v>
+        <v>0.6132470888732522</v>
       </c>
     </row>
     <row r="13">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-6.397508996107927e-06</v>
+        <v>-1.025439589456384e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9470066721347056</v>
+        <v>0.9115206971404308</v>
       </c>
     </row>
     <row r="14">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-9.909461958066796e-08</v>
+        <v>-5.694416046409215e-08</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4136128060828851</v>
+        <v>0.6421543147775401</v>
       </c>
     </row>
     <row r="15">
@@ -635,10 +635,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.1036204806513218</v>
+        <v>0.1253279299345582</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4050239024311348</v>
+        <v>0.3143982648354309</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.09505417313460124</v>
+        <v>0.06660928007600224</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3114415514252624</v>
+        <v>0.4809388480792042</v>
       </c>
     </row>
     <row r="17">
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.1046117088038374</v>
+        <v>0.03597247063296292</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9130911767899752</v>
+        <v>0.9702540912853295</v>
       </c>
     </row>
     <row r="18">
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.005577904197858715</v>
+        <v>-0.003080676388460016</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8764323961824889</v>
+        <v>0.9319346612077265</v>
       </c>
     </row>
     <row r="19">
@@ -687,10 +687,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.007559166997636615</v>
+        <v>0.004401615323995752</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5245824841843196</v>
+        <v>0.7061757262045917</v>
       </c>
     </row>
     <row r="20">
@@ -700,10 +700,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.033887283927993</v>
+        <v>1.56294498710424</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6508731116873019</v>
+        <v>0.4957421878186858</v>
       </c>
     </row>
     <row r="21">
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4.692498812443014</v>
+        <v>4.379573802922656</v>
       </c>
       <c r="C21" t="n">
-        <v>0.01088040650890611</v>
+        <v>0.01439380891274624</v>
       </c>
     </row>
     <row r="22">
@@ -726,10 +726,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.0001588030134300451</v>
+        <v>-0.0002299970438089232</v>
       </c>
       <c r="C22" t="n">
-        <v>0.3958665714547676</v>
+        <v>0.2244615900887843</v>
       </c>
     </row>
   </sheetData>
@@ -775,10 +775,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-3.797326669031407</v>
+        <v>-2.386480722985102</v>
       </c>
       <c r="C2" t="n">
-        <v>0.122147019587957</v>
+        <v>0.3529354659579522</v>
       </c>
     </row>
     <row r="3">
@@ -788,10 +788,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.392852203949709</v>
+        <v>0.08435797572774485</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3390137186807708</v>
+        <v>0.829662865528718</v>
       </c>
     </row>
     <row r="4">
@@ -801,10 +801,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.942209481427467</v>
+        <v>-1.796901779467542</v>
       </c>
       <c r="C4" t="n">
-        <v>2.824675944135578e-10</v>
+        <v>6.525826700436962e-09</v>
       </c>
     </row>
     <row r="5">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1.419192093581553</v>
+        <v>-1.338067572750985</v>
       </c>
       <c r="C5" t="n">
-        <v>1.989325055241488e-05</v>
+        <v>7.517340410230935e-05</v>
       </c>
     </row>
     <row r="6">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.8877731213835939</v>
+        <v>-1.111003205499767</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03412585714677533</v>
+        <v>0.006666154355251594</v>
       </c>
     </row>
     <row r="7">
@@ -840,10 +840,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.3889879061814887</v>
+        <v>-0.2303337562087218</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0248865129777301</v>
+        <v>0.1475835697250462</v>
       </c>
     </row>
     <row r="8">
@@ -853,10 +853,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0005209452329594838</v>
+        <v>0.0004952235563913803</v>
       </c>
       <c r="C8" t="n">
-        <v>4.462266062519686e-07</v>
+        <v>2.090398603237611e-06</v>
       </c>
     </row>
     <row r="9">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02494226076756756</v>
+        <v>0.01991276227627355</v>
       </c>
       <c r="C9" t="n">
-        <v>0.002934660601162711</v>
+        <v>0.022470222387436</v>
       </c>
     </row>
     <row r="10">
@@ -879,10 +879,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.08009346140223285</v>
+        <v>-0.2890602438923537</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7024883489723799</v>
+        <v>0.1907124977192978</v>
       </c>
     </row>
     <row r="11">
@@ -892,10 +892,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7396332169617786</v>
+        <v>0.8301753529255216</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02776611254222239</v>
+        <v>0.01454394341993589</v>
       </c>
     </row>
     <row r="12">
@@ -905,10 +905,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.05317964204146474</v>
+        <v>0.3026113524266266</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9048598349119434</v>
+        <v>0.511545152854798</v>
       </c>
     </row>
     <row r="13">
@@ -918,10 +918,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-4.094624997347197e-05</v>
+        <v>-4.157881314674485e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6595562975290773</v>
+        <v>0.6684688288045566</v>
       </c>
     </row>
     <row r="14">
@@ -931,10 +931,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.003075838684939e-07</v>
+        <v>-7.321970278930031e-08</v>
       </c>
       <c r="C14" t="n">
-        <v>0.418852132477638</v>
+        <v>0.5634185951413218</v>
       </c>
     </row>
     <row r="15">
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.2164768751348501</v>
+        <v>0.1062880833821055</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0929367016568656</v>
+        <v>0.406793180806853</v>
       </c>
     </row>
     <row r="16">
@@ -957,10 +957,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1211976593955039</v>
+        <v>0.1148053511298098</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2079821654245959</v>
+        <v>0.2349968352052553</v>
       </c>
     </row>
     <row r="17">
@@ -970,10 +970,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.6154372068687038</v>
+        <v>0.1868526386748857</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5198283177866926</v>
+        <v>0.8466129614482931</v>
       </c>
     </row>
     <row r="18">
@@ -983,10 +983,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.0111705318981719</v>
+        <v>0.001092345014619954</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7505029311270195</v>
+        <v>0.9764211530239478</v>
       </c>
     </row>
     <row r="19">
@@ -996,10 +996,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.01098247664813905</v>
+        <v>0.006877698586828239</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3466265722096867</v>
+        <v>0.5839066372862405</v>
       </c>
     </row>
     <row r="20">
@@ -1009,10 +1009,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.391963270495833</v>
+        <v>1.593803857451853</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5379458308283398</v>
+        <v>0.4939686287333508</v>
       </c>
     </row>
     <row r="21">
@@ -1022,10 +1022,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>5.223293230434308</v>
+        <v>4.102569957913102</v>
       </c>
       <c r="C21" t="n">
-        <v>0.003741086339561648</v>
+        <v>0.02477515900461032</v>
       </c>
     </row>
     <row r="22">
@@ -1035,10 +1035,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.0001549974138482687</v>
+        <v>-0.0001344600083240463</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4007419951697838</v>
+        <v>0.4962005037368166</v>
       </c>
     </row>
   </sheetData>
@@ -1084,10 +1084,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.188440959177548</v>
+        <v>-2.528953810214416</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6241478277438853</v>
+        <v>0.3081178926129902</v>
       </c>
     </row>
     <row r="3">
@@ -1097,10 +1097,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4336751082902332</v>
+        <v>0.459133667064849</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2703076329439997</v>
+        <v>0.2466977055369144</v>
       </c>
     </row>
     <row r="4">
@@ -1110,10 +1110,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.775402918001749</v>
+        <v>-1.928861134132363</v>
       </c>
       <c r="C4" t="n">
-        <v>6.326964366286371e-09</v>
+        <v>2.435529737960605e-10</v>
       </c>
     </row>
     <row r="5">
@@ -1123,10 +1123,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1.259171590498975</v>
+        <v>-1.306882756048899</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0001448118717792574</v>
+        <v>8.34278761769728e-05</v>
       </c>
     </row>
     <row r="6">
@@ -1136,10 +1136,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.9300449714503358</v>
+        <v>-0.9389026091033023</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02330397196838656</v>
+        <v>0.02809709225251107</v>
       </c>
     </row>
     <row r="7">
@@ -1149,10 +1149,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.2835474034552117</v>
+        <v>-0.3140929739878599</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0847667341915395</v>
+        <v>0.05563344060585786</v>
       </c>
     </row>
     <row r="8">
@@ -1162,10 +1162,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0005649604791221321</v>
+        <v>0.0005073002962917142</v>
       </c>
       <c r="C8" t="n">
-        <v>1.057165999975024e-07</v>
+        <v>1.051894182443462e-06</v>
       </c>
     </row>
     <row r="9">
@@ -1175,10 +1175,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02460354200429442</v>
+        <v>0.02192742569388132</v>
       </c>
       <c r="C9" t="n">
-        <v>0.003669074422742882</v>
+        <v>0.009029952496064832</v>
       </c>
     </row>
     <row r="10">
@@ -1188,10 +1188,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.2205868528731765</v>
+        <v>-0.1786867532715468</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2989369757628748</v>
+        <v>0.3996472346509859</v>
       </c>
     </row>
     <row r="11">
@@ -1201,10 +1201,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6912205209104731</v>
+        <v>0.6949664507393013</v>
       </c>
       <c r="C11" t="n">
-        <v>0.04202759684754849</v>
+        <v>0.03652638949102927</v>
       </c>
     </row>
     <row r="12">
@@ -1214,10 +1214,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.04062062718113667</v>
+        <v>0.1721531860878788</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9273606431979219</v>
+        <v>0.6979240878361008</v>
       </c>
     </row>
     <row r="13">
@@ -1227,10 +1227,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.496208717100257e-05</v>
+        <v>-6.261522962852689e-06</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7851202993712972</v>
+        <v>0.9472482808204237</v>
       </c>
     </row>
     <row r="14">
@@ -1240,10 +1240,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.159716743256631e-07</v>
+        <v>-6.175580864974758e-08</v>
       </c>
       <c r="C14" t="n">
-        <v>0.338245055874812</v>
+        <v>0.614097398908562</v>
       </c>
     </row>
     <row r="15">
@@ -1253,10 +1253,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.1391084312434279</v>
+        <v>0.2252685993435239</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2533694440873711</v>
+        <v>0.0776913490206841</v>
       </c>
     </row>
     <row r="16">
@@ -1266,10 +1266,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.03439678779665738</v>
+        <v>0.0744177637881684</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7135060916221208</v>
+        <v>0.4318595569337732</v>
       </c>
     </row>
     <row r="17">
@@ -1279,10 +1279,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.04581070333896926</v>
+        <v>0.2585731475275105</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9613431743360289</v>
+        <v>0.7901551774874996</v>
       </c>
     </row>
     <row r="18">
@@ -1292,10 +1292,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01346618561346561</v>
+        <v>0.005488624668965859</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7025808511704321</v>
+        <v>0.8761514203550166</v>
       </c>
     </row>
     <row r="19">
@@ -1305,10 +1305,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.0001195287715520689</v>
+        <v>0.005023679736003413</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9915959946421224</v>
+        <v>0.6687435629903534</v>
       </c>
     </row>
     <row r="20">
@@ -1318,10 +1318,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.361531059293122</v>
+        <v>1.326220895199066</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5416016441394882</v>
+        <v>0.5569584123667641</v>
       </c>
     </row>
     <row r="21">
@@ -1331,10 +1331,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>5.016856726941302</v>
+        <v>5.402216636728185</v>
       </c>
       <c r="C21" t="n">
-        <v>0.005376154989166976</v>
+        <v>0.003452736718136082</v>
       </c>
     </row>
     <row r="22">
@@ -1344,10 +1344,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.0001982758051760128</v>
+        <v>-0.0002778168053902493</v>
       </c>
       <c r="C22" t="n">
-        <v>0.2910362742657888</v>
+        <v>0.1413600352279604</v>
       </c>
     </row>
   </sheetData>
@@ -1393,10 +1393,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.612304258910926</v>
+        <v>-1.429959458195639</v>
       </c>
       <c r="C2" t="n">
-        <v>0.523715401454755</v>
+        <v>0.562584291890099</v>
       </c>
     </row>
     <row r="3">
@@ -1406,10 +1406,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.584385433130079</v>
+        <v>0.4700550010893171</v>
       </c>
       <c r="C3" t="n">
-        <v>0.16193471614354</v>
+        <v>0.2486241173832339</v>
       </c>
     </row>
     <row r="4">
@@ -1419,10 +1419,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.966270787794585</v>
+        <v>-1.998192607131285</v>
       </c>
       <c r="C4" t="n">
-        <v>3.528040212228999e-10</v>
+        <v>6.913229191931626e-11</v>
       </c>
     </row>
     <row r="5">
@@ -1432,10 +1432,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1.383990225103456</v>
+        <v>-1.604395508963063</v>
       </c>
       <c r="C5" t="n">
-        <v>3.745738226763209e-05</v>
+        <v>1.368160748340322e-06</v>
       </c>
     </row>
     <row r="6">
@@ -1445,10 +1445,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.8892323770810286</v>
+        <v>-0.9780891929487858</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04235664060786432</v>
+        <v>0.01879499310503884</v>
       </c>
     </row>
     <row r="7">
@@ -1458,10 +1458,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.3411196959690954</v>
+        <v>-0.3465464154233534</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04411150229769093</v>
+        <v>0.03757868045086351</v>
       </c>
     </row>
     <row r="8">
@@ -1471,10 +1471,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0004367466783128222</v>
+        <v>0.0004973913659043771</v>
       </c>
       <c r="C8" t="n">
-        <v>2.08178149569721e-05</v>
+        <v>2.502242458397489e-06</v>
       </c>
     </row>
     <row r="9">
@@ -1484,10 +1484,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02599335610119154</v>
+        <v>0.02328533797357115</v>
       </c>
       <c r="C9" t="n">
-        <v>0.003231860190057255</v>
+        <v>0.007087260979737138</v>
       </c>
     </row>
     <row r="10">
@@ -1497,10 +1497,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1936442540891295</v>
+        <v>-0.007661444932498101</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3753347146452368</v>
+        <v>0.9713009788030071</v>
       </c>
     </row>
     <row r="11">
@@ -1510,10 +1510,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.012889440802961</v>
+        <v>0.7226106367100301</v>
       </c>
       <c r="C11" t="n">
-        <v>0.003377131071224575</v>
+        <v>0.03595476102067639</v>
       </c>
     </row>
     <row r="12">
@@ -1523,10 +1523,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.131909773586446</v>
+        <v>0.06107226489143966</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7752162636988134</v>
+        <v>0.8919878899754552</v>
       </c>
     </row>
     <row r="13">
@@ -1536,10 +1536,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-2.837486565587985e-05</v>
+        <v>-3.268962948530477e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7685606394215349</v>
+        <v>0.7272384021977327</v>
       </c>
     </row>
     <row r="14">
@@ -1549,10 +1549,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.159238060341658e-07</v>
+        <v>-1.497263281513426e-07</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3547392063180637</v>
+        <v>0.2242727559001829</v>
       </c>
     </row>
     <row r="15">
@@ -1562,10 +1562,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.1570208848194867</v>
+        <v>0.1362053778471579</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2053538806344747</v>
+        <v>0.2663312303576312</v>
       </c>
     </row>
     <row r="16">
@@ -1575,10 +1575,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.050333229635399</v>
+        <v>0.05407323507200072</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5937676595033793</v>
+        <v>0.5640887508412911</v>
       </c>
     </row>
     <row r="17">
@@ -1588,10 +1588,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.1369111669801445</v>
+        <v>0.8099038011449374</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8884345843117448</v>
+        <v>0.4062491911441303</v>
       </c>
     </row>
     <row r="18">
@@ -1601,10 +1601,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.006282274491547936</v>
+        <v>-0.01527467454063766</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8634753153985634</v>
+        <v>0.6711998504917225</v>
       </c>
     </row>
     <row r="19">
@@ -1614,10 +1614,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.003448819942264368</v>
+        <v>0.002438160427900284</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7724502897635036</v>
+        <v>0.8341188525975649</v>
       </c>
     </row>
     <row r="20">
@@ -1627,10 +1627,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.250638813364162</v>
+        <v>2.46920026331397</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5839117233098481</v>
+        <v>0.2804164825139531</v>
       </c>
     </row>
     <row r="21">
@@ -1640,10 +1640,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4.182033656035904</v>
+        <v>5.305601745355532</v>
       </c>
       <c r="C21" t="n">
-        <v>0.02431207044624225</v>
+        <v>0.003892710827415816</v>
       </c>
     </row>
     <row r="22">
@@ -1653,10 +1653,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-8.236439085732491e-05</v>
+        <v>-0.0001410386552120511</v>
       </c>
       <c r="C22" t="n">
-        <v>0.677197855497661</v>
+        <v>0.4575549674500139</v>
       </c>
     </row>
   </sheetData>
@@ -1702,10 +1702,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.489389678749393</v>
+        <v>-1.794121315680979</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8492089088510012</v>
+        <v>0.4635805963272768</v>
       </c>
     </row>
     <row r="3">
@@ -1715,10 +1715,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.09838530490480396</v>
+        <v>0.05044072951782767</v>
       </c>
       <c r="C3" t="n">
-        <v>0.807696928916093</v>
+        <v>0.8977726869665696</v>
       </c>
     </row>
     <row r="4">
@@ -1728,10 +1728,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.971631191410109</v>
+        <v>-1.538755731575078</v>
       </c>
       <c r="C4" t="n">
-        <v>2.702854915259164e-10</v>
+        <v>8.86736993652779e-07</v>
       </c>
     </row>
     <row r="5">
@@ -1741,10 +1741,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1.573922688691182</v>
+        <v>-0.9974715822977249</v>
       </c>
       <c r="C5" t="n">
-        <v>4.40416005479982e-06</v>
+        <v>0.004381989082349626</v>
       </c>
     </row>
     <row r="6">
@@ -1754,10 +1754,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.279168152708702</v>
+        <v>-1.076426874712717</v>
       </c>
       <c r="C6" t="n">
-        <v>0.003734731096074642</v>
+        <v>0.01085866627998058</v>
       </c>
     </row>
     <row r="7">
@@ -1767,10 +1767,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.2705268021662979</v>
+        <v>-0.04639099715962592</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1057877063215331</v>
+        <v>0.7958791041842707</v>
       </c>
     </row>
     <row r="8">
@@ -1780,10 +1780,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0005056090213729678</v>
+        <v>0.00047098328428663</v>
       </c>
       <c r="C8" t="n">
-        <v>2.681165315543505e-06</v>
+        <v>4.757698573330887e-06</v>
       </c>
     </row>
     <row r="9">
@@ -1793,10 +1793,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02104311756505046</v>
+        <v>0.0240378506188672</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01676073258031568</v>
+        <v>0.004913130130781452</v>
       </c>
     </row>
     <row r="10">
@@ -1806,10 +1806,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1341228419839664</v>
+        <v>-0.07655110563877876</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5414980049771467</v>
+        <v>0.7183065455558058</v>
       </c>
     </row>
     <row r="11">
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9861975241700718</v>
+        <v>0.9327278465068382</v>
       </c>
       <c r="C11" t="n">
-        <v>0.00587587324528711</v>
+        <v>0.009107141060895963</v>
       </c>
     </row>
     <row r="12">
@@ -1832,10 +1832,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3498132092244335</v>
+        <v>0.2979703107689918</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4614131584509034</v>
+        <v>0.5108091953234351</v>
       </c>
     </row>
     <row r="13">
@@ -1845,10 +1845,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4.619536843805901e-06</v>
+        <v>2.654717746688235e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9616119263087505</v>
+        <v>0.7762512343919619</v>
       </c>
     </row>
     <row r="14">
@@ -1858,10 +1858,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.530051112698861e-08</v>
+        <v>-1.260808173053362e-07</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9087666966475132</v>
+        <v>0.3036392794613588</v>
       </c>
     </row>
     <row r="15">
@@ -1871,10 +1871,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.2402860799989239</v>
+        <v>0.1521633374008487</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1055372660797727</v>
+        <v>0.2262704628687787</v>
       </c>
     </row>
     <row r="16">
@@ -1884,10 +1884,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1347457048246807</v>
+        <v>0.07774692909301045</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2218618065885133</v>
+        <v>0.4145588904546352</v>
       </c>
     </row>
     <row r="17">
@@ -1897,10 +1897,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.4163881553123146</v>
+        <v>-0.4223505718108779</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6775310042059728</v>
+        <v>0.6582539968620371</v>
       </c>
     </row>
     <row r="18">
@@ -1910,10 +1910,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.02986783619483581</v>
+        <v>8.564715380231549e-05</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4184518241516639</v>
+        <v>0.9980623890644398</v>
       </c>
     </row>
     <row r="19">
@@ -1923,10 +1923,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.007353101952153967</v>
+        <v>-0.0004331747728960983</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5565372892171012</v>
+        <v>0.970032715554022</v>
       </c>
     </row>
     <row r="20">
@@ -1936,10 +1936,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.314808689674353</v>
+        <v>-0.5878025716486941</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5876065456270494</v>
+        <v>0.7945818387818244</v>
       </c>
     </row>
     <row r="21">
@@ -1949,10 +1949,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4.198750040654933</v>
+        <v>4.37286204374533</v>
       </c>
       <c r="C21" t="n">
-        <v>0.02397125346791391</v>
+        <v>0.01712190828845163</v>
       </c>
     </row>
     <row r="22">
@@ -1962,10 +1962,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-9.137380736325598e-05</v>
+        <v>-0.0001057138364442033</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6450784715333098</v>
+        <v>0.5774353089887556</v>
       </c>
     </row>
   </sheetData>
@@ -2011,10 +2011,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2.232996306430207</v>
+        <v>-1.129324188487728</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3693106185754081</v>
+        <v>0.6464562104882215</v>
       </c>
     </row>
     <row r="3">
@@ -2024,10 +2024,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2487688369450096</v>
+        <v>0.6873658696468437</v>
       </c>
       <c r="C3" t="n">
-        <v>0.523864281756426</v>
+        <v>0.08704378775479153</v>
       </c>
     </row>
     <row r="4">
@@ -2037,10 +2037,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.923580782615273</v>
+        <v>-2.134875027011317</v>
       </c>
       <c r="C4" t="n">
-        <v>9.802282539980622e-10</v>
+        <v>3.235712179943375e-12</v>
       </c>
     </row>
     <row r="5">
@@ -2050,10 +2050,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1.177286304345853</v>
+        <v>-1.612415268242932</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0006410501980689853</v>
+        <v>1.410857201726128e-06</v>
       </c>
     </row>
     <row r="6">
@@ -2063,10 +2063,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.9980009376896296</v>
+        <v>-0.9307331048142163</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01392114900578426</v>
+        <v>0.02703312282582252</v>
       </c>
     </row>
     <row r="7">
@@ -2076,10 +2076,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.1313874712171929</v>
+        <v>-0.5258533257564022</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4417017261150622</v>
+        <v>0.001157132876179853</v>
       </c>
     </row>
     <row r="8">
@@ -2089,10 +2089,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0004642020942537737</v>
+        <v>0.0005319654590329883</v>
       </c>
       <c r="C8" t="n">
-        <v>1.028778938130756e-05</v>
+        <v>4.854224212143186e-07</v>
       </c>
     </row>
     <row r="9">
@@ -2102,10 +2102,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02658530181673458</v>
+        <v>0.02545129659913907</v>
       </c>
       <c r="C9" t="n">
-        <v>0.002312946909776955</v>
+        <v>0.003135295765322484</v>
       </c>
     </row>
     <row r="10">
@@ -2115,10 +2115,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1902305681424027</v>
+        <v>-0.1514748500346638</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3782641710440013</v>
+        <v>0.4752429103051912</v>
       </c>
     </row>
     <row r="11">
@@ -2128,10 +2128,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7618269556893769</v>
+        <v>0.7712943710246393</v>
       </c>
       <c r="C11" t="n">
-        <v>0.03041711450447081</v>
+        <v>0.02766316408517833</v>
       </c>
     </row>
     <row r="12">
@@ -2141,10 +2141,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1045489015850843</v>
+        <v>-0.04880436555060453</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8202748871478134</v>
+        <v>0.9159140468254693</v>
       </c>
     </row>
     <row r="13">
@@ -2154,10 +2154,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.465123907850651e-05</v>
+        <v>4.76575364676888e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8763259384887969</v>
+        <v>0.6181520781848144</v>
       </c>
     </row>
     <row r="14">
@@ -2167,10 +2167,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-6.752465189904716e-08</v>
+        <v>-1.256165478884939e-07</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5791425908949739</v>
+        <v>0.3048329202681661</v>
       </c>
     </row>
     <row r="15">
@@ -2180,10 +2180,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.158079564545256</v>
+        <v>0.1056262003150238</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2008691293192519</v>
+        <v>0.3793280828106946</v>
       </c>
     </row>
     <row r="16">
@@ -2193,10 +2193,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.08708378106561988</v>
+        <v>0.04361054361033738</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3529278913625029</v>
+        <v>0.6328733385552718</v>
       </c>
     </row>
     <row r="17">
@@ -2206,10 +2206,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.0751678848055586</v>
+        <v>-0.269883305778679</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9386082892072136</v>
+        <v>0.7788855692600752</v>
       </c>
     </row>
     <row r="18">
@@ -2219,10 +2219,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01015133353620533</v>
+        <v>-0.0176362709132973</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7764026734171974</v>
+        <v>0.6217056937165256</v>
       </c>
     </row>
     <row r="19">
@@ -2232,10 +2232,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.0004934607366494009</v>
+        <v>0.003423189283167852</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9662515185980342</v>
+        <v>0.7680178804152792</v>
       </c>
     </row>
     <row r="20">
@@ -2245,10 +2245,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.764526488973194</v>
+        <v>1.60599817526908</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4404619747352579</v>
+        <v>0.4776153023778933</v>
       </c>
     </row>
     <row r="21">
@@ -2258,10 +2258,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>5.547678587021831</v>
+        <v>5.050105965207573</v>
       </c>
       <c r="C21" t="n">
-        <v>0.003041083266762538</v>
+        <v>0.005316911258475772</v>
       </c>
     </row>
     <row r="22">
@@ -2271,10 +2271,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.0001674965718493546</v>
+        <v>-0.0001106072583932445</v>
       </c>
       <c r="C22" t="n">
-        <v>0.3815837059957241</v>
+        <v>0.5549847296875722</v>
       </c>
     </row>
   </sheetData>
@@ -2320,10 +2320,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.505810952858256</v>
+        <v>-2.167334390024547</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5513938166617676</v>
+        <v>0.3936790628068048</v>
       </c>
     </row>
     <row r="3">
@@ -2333,10 +2333,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3171392367440498</v>
+        <v>0.201325772421036</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4192363763945495</v>
+        <v>0.6015281718093893</v>
       </c>
     </row>
     <row r="4">
@@ -2346,10 +2346,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.977036047860495</v>
+        <v>-1.833752050561865</v>
       </c>
       <c r="C4" t="n">
-        <v>8.913699847960671e-11</v>
+        <v>2.457862505542353e-09</v>
       </c>
     </row>
     <row r="5">
@@ -2359,10 +2359,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1.429234772029604</v>
+        <v>-1.360378727979903</v>
       </c>
       <c r="C5" t="n">
-        <v>2.304228694738151e-05</v>
+        <v>5.19532888586094e-05</v>
       </c>
     </row>
     <row r="6">
@@ -2372,10 +2372,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.8936836864052632</v>
+        <v>-0.7227013194377458</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04024547789957274</v>
+        <v>0.1081742850509068</v>
       </c>
     </row>
     <row r="7">
@@ -2385,10 +2385,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.2987597827023596</v>
+        <v>-0.1989197734679441</v>
       </c>
       <c r="C7" t="n">
-        <v>0.06228939770967308</v>
+        <v>0.222174004403445</v>
       </c>
     </row>
     <row r="8">
@@ -2398,10 +2398,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0004701329397819928</v>
+        <v>0.0004526094354052502</v>
       </c>
       <c r="C8" t="n">
-        <v>5.174721782830784e-06</v>
+        <v>1.293671711576121e-05</v>
       </c>
     </row>
     <row r="9">
@@ -2411,10 +2411,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01580723227248676</v>
+        <v>0.02445013751452491</v>
       </c>
       <c r="C9" t="n">
-        <v>0.06466718196207273</v>
+        <v>0.00453396813282503</v>
       </c>
     </row>
     <row r="10">
@@ -2424,10 +2424,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1511022734850877</v>
+        <v>-0.1854391561372603</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4836983174344002</v>
+        <v>0.3915098476060549</v>
       </c>
     </row>
     <row r="11">
@@ -2437,10 +2437,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7517199683816211</v>
+        <v>0.8386017441850734</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02577605128800737</v>
+        <v>0.01402308736583165</v>
       </c>
     </row>
     <row r="12">
@@ -2450,10 +2450,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3033657808813411</v>
+        <v>0.08220818582641895</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4946610264607333</v>
+        <v>0.8575061580048534</v>
       </c>
     </row>
     <row r="13">
@@ -2463,10 +2463,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4.392314553038274e-05</v>
+        <v>-1.648356565004899e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6433124133816273</v>
+        <v>0.862884017656355</v>
       </c>
     </row>
     <row r="14">
@@ -2476,10 +2476,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-9.742193354110939e-08</v>
+        <v>-8.45253367338622e-08</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4431957795915318</v>
+        <v>0.5011886258268722</v>
       </c>
     </row>
     <row r="15">
@@ -2489,10 +2489,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.1573781335374127</v>
+        <v>0.2064533908193385</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2370111354132797</v>
+        <v>0.128654616085867</v>
       </c>
     </row>
     <row r="16">
@@ -2502,10 +2502,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.06600471157185421</v>
+        <v>0.142221455590293</v>
       </c>
       <c r="C16" t="n">
-        <v>0.501366014458009</v>
+        <v>0.1590699639687619</v>
       </c>
     </row>
     <row r="17">
@@ -2515,10 +2515,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.08097178541661706</v>
+        <v>0.1904348878526009</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9350040979021086</v>
+        <v>0.8475057849574804</v>
       </c>
     </row>
     <row r="18">
@@ -2528,10 +2528,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.02199153331002965</v>
+        <v>0.001068397335472407</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5411715858366524</v>
+        <v>0.9763457541376906</v>
       </c>
     </row>
     <row r="19">
@@ -2541,10 +2541,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.004552958026595268</v>
+        <v>0.0003039587699293567</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7030593191348915</v>
+        <v>0.979858778998958</v>
       </c>
     </row>
     <row r="20">
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.431304389465331</v>
+        <v>0.6541028888764663</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2919443576538523</v>
+        <v>0.7757372852083791</v>
       </c>
     </row>
     <row r="21">
@@ -2567,10 +2567,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>5.361296812471847</v>
+        <v>4.464356413869151</v>
       </c>
       <c r="C21" t="n">
-        <v>0.004029655611698058</v>
+        <v>0.01588014742402441</v>
       </c>
     </row>
     <row r="22">
@@ -2580,10 +2580,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.000170056574007369</v>
+        <v>-0.0001199908640949439</v>
       </c>
       <c r="C22" t="n">
-        <v>0.3758779701131196</v>
+        <v>0.5267187712125658</v>
       </c>
     </row>
   </sheetData>
@@ -2629,10 +2629,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2.143775988662414</v>
+        <v>-1.655679368781766</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3785045253645227</v>
+        <v>0.4988165280468185</v>
       </c>
     </row>
     <row r="3">
@@ -2642,10 +2642,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1975470373444494</v>
+        <v>0.2565889758298847</v>
       </c>
       <c r="C3" t="n">
-        <v>0.611820273610334</v>
+        <v>0.5223500348211475</v>
       </c>
     </row>
     <row r="4">
@@ -2655,10 +2655,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.861723704638455</v>
+        <v>-1.954671345309116</v>
       </c>
       <c r="C4" t="n">
-        <v>9.140837561994643e-10</v>
+        <v>2.742139540610319e-10</v>
       </c>
     </row>
     <row r="5">
@@ -2668,10 +2668,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1.533615144737886</v>
+        <v>-1.264799693021301</v>
       </c>
       <c r="C5" t="n">
-        <v>3.927374032321507e-06</v>
+        <v>0.0001899679373709568</v>
       </c>
     </row>
     <row r="6">
@@ -2681,10 +2681,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.9994135152664669</v>
+        <v>-1.330659803085266</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01555088317637548</v>
+        <v>0.002219910867403445</v>
       </c>
     </row>
     <row r="7">
@@ -2694,10 +2694,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.2999331073037411</v>
+        <v>-0.224894169299735</v>
       </c>
       <c r="C7" t="n">
-        <v>0.06658535848635155</v>
+        <v>0.1819181087568487</v>
       </c>
     </row>
     <row r="8">
@@ -2707,10 +2707,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0005243556858475719</v>
+        <v>0.000480653186761369</v>
       </c>
       <c r="C8" t="n">
-        <v>5.784513738983116e-07</v>
+        <v>4.079288647111025e-06</v>
       </c>
     </row>
     <row r="9">
@@ -2720,10 +2720,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02446269478040526</v>
+        <v>0.02824359523563711</v>
       </c>
       <c r="C9" t="n">
-        <v>0.004455841072143036</v>
+        <v>0.001349877578393964</v>
       </c>
     </row>
     <row r="10">
@@ -2733,10 +2733,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1927020930211595</v>
+        <v>-0.04506223395518939</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3652680314115222</v>
+        <v>0.8326257405501557</v>
       </c>
     </row>
     <row r="11">
@@ -2746,10 +2746,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7345822851799996</v>
+        <v>0.727323929106475</v>
       </c>
       <c r="C11" t="n">
-        <v>0.03695957026769544</v>
+        <v>0.03923600755445916</v>
       </c>
     </row>
     <row r="12">
@@ -2759,10 +2759,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.04672257456332391</v>
+        <v>-0.1188802790099627</v>
       </c>
       <c r="C12" t="n">
-        <v>0.920922284477261</v>
+        <v>0.799501174908227</v>
       </c>
     </row>
     <row r="13">
@@ -2772,10 +2772,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-3.496524756582786e-05</v>
+        <v>-3.542291093816962e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7086453719524387</v>
+        <v>0.703357212197834</v>
       </c>
     </row>
     <row r="14">
@@ -2785,10 +2785,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-4.613912602632796e-08</v>
+        <v>-1.335055802994129e-07</v>
       </c>
       <c r="C14" t="n">
-        <v>0.709884102830083</v>
+        <v>0.2831760535450091</v>
       </c>
     </row>
     <row r="15">
@@ -2798,10 +2798,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.1826850602417099</v>
+        <v>0.1398612017911838</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1496558346763407</v>
+        <v>0.2488204494801152</v>
       </c>
     </row>
     <row r="16">
@@ -2811,10 +2811,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1044356318238852</v>
+        <v>0.02394239292780716</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2747493690320488</v>
+        <v>0.7978264030630535</v>
       </c>
     </row>
     <row r="17">
@@ -2824,10 +2824,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.3574809323468688</v>
+        <v>0.3911167056325815</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7092589113827071</v>
+        <v>0.6889668784732301</v>
       </c>
     </row>
     <row r="18">
@@ -2837,10 +2837,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.01589334785832843</v>
+        <v>-0.01958024193644205</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6564410053847762</v>
+        <v>0.582666155962573</v>
       </c>
     </row>
     <row r="19">
@@ -2850,10 +2850,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.002573728025301607</v>
+        <v>0.002799370012241789</v>
       </c>
       <c r="C19" t="n">
-        <v>0.825023177215312</v>
+        <v>0.8057038960991101</v>
       </c>
     </row>
     <row r="20">
@@ -2863,10 +2863,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.05059908466654573</v>
+        <v>2.376323412123093</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9821842682751694</v>
+        <v>0.295450101965263</v>
       </c>
     </row>
     <row r="21">
@@ -2876,10 +2876,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4.048683173845076</v>
+        <v>4.890272535499741</v>
       </c>
       <c r="C21" t="n">
-        <v>0.02289587317917064</v>
+        <v>0.007760967308364283</v>
       </c>
     </row>
     <row r="22">
@@ -2889,10 +2889,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.0001823149386692828</v>
+        <v>-6.733313388195968e-05</v>
       </c>
       <c r="C22" t="n">
-        <v>0.3289599194166121</v>
+        <v>0.7257750265151004</v>
       </c>
     </row>
   </sheetData>
@@ -2938,10 +2938,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.8894133260474951</v>
+        <v>-1.901775940321695</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7219286939058754</v>
+        <v>0.4583517979180198</v>
       </c>
     </row>
     <row r="3">
@@ -2951,10 +2951,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3586982836637839</v>
+        <v>0.480975092447518</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3826054609295689</v>
+        <v>0.2367773854797166</v>
       </c>
     </row>
     <row r="4">
@@ -2964,10 +2964,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.813364161873319</v>
+        <v>-1.986088332492154</v>
       </c>
       <c r="C4" t="n">
-        <v>6.321127505579291e-09</v>
+        <v>2.753745874848144e-10</v>
       </c>
     </row>
     <row r="5">
@@ -2977,10 +2977,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1.388528579400503</v>
+        <v>-1.430845782050854</v>
       </c>
       <c r="C5" t="n">
-        <v>5.175155422190861e-05</v>
+        <v>2.913350709431281e-05</v>
       </c>
     </row>
     <row r="6">
@@ -2990,10 +2990,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.038880851526117</v>
+        <v>-0.9126417716876535</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01752136111404416</v>
+        <v>0.03283432187537549</v>
       </c>
     </row>
     <row r="7">
@@ -3003,10 +3003,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.234248674434183</v>
+        <v>-0.3084521299979716</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1789627485759826</v>
+        <v>0.0694543982725819</v>
       </c>
     </row>
     <row r="8">
@@ -3016,10 +3016,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0004565507250059292</v>
+        <v>0.000470847794020204</v>
       </c>
       <c r="C8" t="n">
-        <v>1.616294131150521e-05</v>
+        <v>1.198779085982565e-05</v>
       </c>
     </row>
     <row r="9">
@@ -3029,10 +3029,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02585455520316135</v>
+        <v>0.0279897130598571</v>
       </c>
       <c r="C9" t="n">
-        <v>0.002873786058489796</v>
+        <v>0.001248180495241229</v>
       </c>
     </row>
     <row r="10">
@@ -3042,10 +3042,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.04929770454127823</v>
+        <v>-0.25403399820561</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8175305585736639</v>
+        <v>0.2503012258709486</v>
       </c>
     </row>
     <row r="11">
@@ -3055,10 +3055,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7391325178947961</v>
+        <v>0.8500849623025559</v>
       </c>
       <c r="C11" t="n">
-        <v>0.03378462903881899</v>
+        <v>0.01519539530141576</v>
       </c>
     </row>
     <row r="12">
@@ -3068,10 +3068,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.03196426897664847</v>
+        <v>0.07051656216004842</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9432900907968499</v>
+        <v>0.8771162721599159</v>
       </c>
     </row>
     <row r="13">
@@ -3081,10 +3081,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1.108007158341208e-05</v>
+        <v>2.316239124861144e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9063118139058832</v>
+        <v>0.8079761364342481</v>
       </c>
     </row>
     <row r="14">
@@ -3094,10 +3094,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.531410267991748e-07</v>
+        <v>-2.802437940415774e-08</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2116299031190503</v>
+        <v>0.8280847552406569</v>
       </c>
     </row>
     <row r="15">
@@ -3107,10 +3107,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.07686944480981853</v>
+        <v>0.1872946845792538</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5127497321478012</v>
+        <v>0.1722344182436031</v>
       </c>
     </row>
     <row r="16">
@@ -3120,10 +3120,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.03152202925421246</v>
+        <v>0.09654883952262866</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7293876268036045</v>
+        <v>0.3515620347581299</v>
       </c>
     </row>
     <row r="17">
@@ -3133,10 +3133,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.03068537409984348</v>
+        <v>-0.3448293544578773</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9749672655998358</v>
+        <v>0.7253547212507829</v>
       </c>
     </row>
     <row r="18">
@@ -3146,10 +3146,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.002653644938249997</v>
+        <v>0.002534054699231463</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9428586360485518</v>
+        <v>0.9461180631518883</v>
       </c>
     </row>
     <row r="19">
@@ -3159,10 +3159,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.001187129546688264</v>
+        <v>0.001551750869256319</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9192191280388589</v>
+        <v>0.8983866221891673</v>
       </c>
     </row>
     <row r="20">
@@ -3172,10 +3172,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.2749931959704</v>
+        <v>0.1677913655412299</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9053266546676229</v>
+        <v>0.9443080949320362</v>
       </c>
     </row>
     <row r="21">
@@ -3185,10 +3185,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4.16673192227836</v>
+        <v>4.596024199149111</v>
       </c>
       <c r="C21" t="n">
-        <v>0.02538294322922922</v>
+        <v>0.01567063459004781</v>
       </c>
     </row>
     <row r="22">
@@ -3198,10 +3198,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.0001722030886851279</v>
+        <v>-0.0002148854983978633</v>
       </c>
       <c r="C22" t="n">
-        <v>0.3681724175801541</v>
+        <v>0.2638896745228035</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/carown_LR_new/Dresden.xlsx
+++ b/outputs/ML_Results/carown_LR_new/Dresden.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,270 +466,218 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.953811942770429</v>
+        <v>-3.998674065090249</v>
       </c>
       <c r="C2" t="n">
-        <v>0.425182404604165</v>
+        <v>0.08956791235634928</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult_Kids]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1577283869406464</v>
+        <v>0.2189947318250469</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6864331321537505</v>
+        <v>0.02049800916455411</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female]</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.790361318539355</v>
+        <v>0.0006673908731647275</v>
       </c>
       <c r="C4" t="n">
-        <v>4.01935162856811e-09</v>
+        <v>1.277911861363985e-10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1.216498666510281</v>
+        <v>0.02299499712640721</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0002250663283323487</v>
+        <v>0.003639602139753707</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Parent]</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.9143969533111457</v>
+        <v>-0.009664533028776595</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03300588836760163</v>
+        <v>0.9612009963842201</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.238314593079679</v>
+        <v>0.649732277471828</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1470322501552495</v>
+        <v>0.05163643436290704</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0005291567803189052</v>
+        <v>0.2757982069672833</v>
       </c>
       <c r="C8" t="n">
-        <v>4.609027329201701e-07</v>
+        <v>0.5194121900979596</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02000753404355578</v>
+        <v>-7.013230344893405e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01758387509665474</v>
+        <v>0.9365502803920085</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1312983007549266</v>
+        <v>-5.815280081436424e-08</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5347535646353687</v>
+        <v>0.6250070162471837</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7825229239922434</v>
+        <v>0.1455860753220531</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02363244865153542</v>
+        <v>0.2289687607992286</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2281481647145592</v>
+        <v>0.08178834864715148</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6132470888732522</v>
+        <v>0.3687791294450826</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1.025439589456384e-05</v>
+        <v>-0.01269630153753263</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9115206971404308</v>
+        <v>0.9891555516684377</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-5.694416046409215e-08</v>
+        <v>0.001407173986678247</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6421543147775401</v>
+        <v>0.9686278607673907</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.1253279299345582</v>
+        <v>0.004141308091578862</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3143982648354309</v>
+        <v>0.7151795704329953</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.06660928007600224</v>
+        <v>0.8788217972525708</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4809388480792042</v>
+        <v>0.6924746971324052</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.03597247063296292</v>
+        <v>3.907722464684674</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9702540912853295</v>
+        <v>0.02516683699986131</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>transit_accessibility</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.003080676388460016</v>
+        <v>-0.0001979985609519264</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9319346612077265</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>street_length</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0.004401615323995752</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.7061757262045917</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>LU_UrbFab</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>1.56294498710424</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.4957421878186858</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LU_Comm</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>4.379573802922656</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.01439380891274624</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>transit_accessibility</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-0.0002299970438089232</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.2244615900887843</v>
+        <v>0.2824740918425294</v>
       </c>
     </row>
   </sheetData>
@@ -743,7 +691,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -775,270 +723,218 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2.386480722985102</v>
+        <v>-4.580854534550159</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3529354659579522</v>
+        <v>0.06224067770972044</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult_Kids]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.08435797572774485</v>
+        <v>0.1953452190536123</v>
       </c>
       <c r="C3" t="n">
-        <v>0.829662865528718</v>
+        <v>0.03307701679016523</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female]</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.796901779467542</v>
+        <v>0.0006404846449344435</v>
       </c>
       <c r="C4" t="n">
-        <v>6.525826700436962e-09</v>
+        <v>3.553602696092082e-10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1.338067572750985</v>
+        <v>0.02273391140408067</v>
       </c>
       <c r="C5" t="n">
-        <v>7.517340410230935e-05</v>
+        <v>0.005228744016563811</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Parent]</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.111003205499767</v>
+        <v>-0.1824824599387717</v>
       </c>
       <c r="C6" t="n">
-        <v>0.006666154355251594</v>
+        <v>0.3773914126050423</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.2303337562087218</v>
+        <v>0.6416836959542217</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1475835697250462</v>
+        <v>0.05062897431261396</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0004952235563913803</v>
+        <v>0.3466391088250635</v>
       </c>
       <c r="C8" t="n">
-        <v>2.090398603237611e-06</v>
+        <v>0.427876877127531</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01991276227627355</v>
+        <v>-6.100951920778502e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>0.022470222387436</v>
+        <v>0.5106433349858066</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.2890602438923537</v>
+        <v>-8.863681079494382e-08</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1907124977192978</v>
+        <v>0.4693579032794996</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.8301753529255216</v>
+        <v>0.1248197188345617</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01454394341993589</v>
+        <v>0.3074955909858268</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3026113524266266</v>
+        <v>0.1273526966486773</v>
       </c>
       <c r="C12" t="n">
-        <v>0.511545152854798</v>
+        <v>0.1649544993592407</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-4.157881314674485e-05</v>
+        <v>0.1400834663979372</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6684688288045566</v>
+        <v>0.8805613102268749</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-7.321970278930031e-08</v>
+        <v>0.0116286515333132</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5634185951413218</v>
+        <v>0.7518070238619399</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.1062880833821055</v>
+        <v>0.008153437054298369</v>
       </c>
       <c r="C15" t="n">
-        <v>0.406793180806853</v>
+        <v>0.5010026565599837</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1148053511298098</v>
+        <v>0.7256516050917614</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2349968352052553</v>
+        <v>0.7470994338613627</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.1868526386748857</v>
+        <v>3.599087637948079</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8466129614482931</v>
+        <v>0.04218641203360846</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>transit_accessibility</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.001092345014619954</v>
+        <v>-9.388961601173393e-05</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9764211530239478</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>street_length</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0.006877698586828239</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.5839066372862405</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>LU_UrbFab</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>1.593803857451853</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.4939686287333508</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LU_Comm</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>4.102569957913102</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.02477515900461032</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>transit_accessibility</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-0.0001344600083240463</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.4962005037368166</v>
+        <v>0.629283672944547</v>
       </c>
     </row>
   </sheetData>
@@ -1052,7 +948,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1084,270 +980,218 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2.528953810214416</v>
+        <v>-5.042742336732331</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3081178926129902</v>
+        <v>0.03370165623557111</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult_Kids]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.459133667064849</v>
+        <v>0.2435565491468913</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2466977055369144</v>
+        <v>0.009502605729457539</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female]</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.928861134132363</v>
+        <v>0.0006525916230594678</v>
       </c>
       <c r="C4" t="n">
-        <v>2.435529737960605e-10</v>
+        <v>1.461347863012369e-10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1.306882756048899</v>
+        <v>0.02412249288826637</v>
       </c>
       <c r="C5" t="n">
-        <v>8.34278761769728e-05</v>
+        <v>0.002267670616271113</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Parent]</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.9389026091033023</v>
+        <v>-0.07295458764644337</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02809709225251107</v>
+        <v>0.7139559988583599</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.3140929739878599</v>
+        <v>0.5663556634619364</v>
       </c>
       <c r="C7" t="n">
-        <v>0.05563344060585786</v>
+        <v>0.08002905013887193</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0005073002962917142</v>
+        <v>0.2027511764196432</v>
       </c>
       <c r="C8" t="n">
-        <v>1.051894182443462e-06</v>
+        <v>0.6306614703602047</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02192742569388132</v>
+        <v>-2.008347382149554e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>0.009029952496064832</v>
+        <v>0.8234435196830341</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1786867532715468</v>
+        <v>-5.508092493783609e-08</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3996472346509859</v>
+        <v>0.642925965962918</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6949664507393013</v>
+        <v>0.2565273833279711</v>
       </c>
       <c r="C11" t="n">
-        <v>0.03652638949102927</v>
+        <v>0.03886959430305634</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1721531860878788</v>
+        <v>0.1058234478467073</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6979240878361008</v>
+        <v>0.2448915541097891</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-6.261522962852689e-06</v>
+        <v>0.2293717462140738</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9472482808204237</v>
+        <v>0.8069019307385179</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-6.175580864974758e-08</v>
+        <v>0.01608542147934365</v>
       </c>
       <c r="C14" t="n">
-        <v>0.614097398908562</v>
+        <v>0.6447961360478645</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.2252685993435239</v>
+        <v>0.00578732197045981</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0776913490206841</v>
+        <v>0.611478522180934</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.0744177637881684</v>
+        <v>0.4115092067326836</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4318595569337732</v>
+        <v>0.8501331852916072</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.2585731475275105</v>
+        <v>4.629693621915093</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7901551774874996</v>
+        <v>0.009331956996781325</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>transit_accessibility</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.005488624668965859</v>
+        <v>-0.0002306132278410697</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8761514203550166</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>street_length</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0.005023679736003413</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.6687435629903534</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>LU_UrbFab</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>1.326220895199066</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.5569584123667641</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LU_Comm</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>5.402216636728185</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.003452736718136082</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>transit_accessibility</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-0.0002778168053902493</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.1413600352279604</v>
+        <v>0.2096242049841399</v>
       </c>
     </row>
   </sheetData>
@@ -1361,7 +1205,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1393,270 +1237,218 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.429959458195639</v>
+        <v>-4.070371940942221</v>
       </c>
       <c r="C2" t="n">
-        <v>0.562584291890099</v>
+        <v>0.08350059428588455</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult_Kids]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4700550010893171</v>
+        <v>0.2733656480264006</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2486241173832339</v>
+        <v>0.003858662469818237</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female]</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.998192607131285</v>
+        <v>0.0006485772627478998</v>
       </c>
       <c r="C4" t="n">
-        <v>6.913229191931626e-11</v>
+        <v>3.43790253218623e-10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1.604395508963063</v>
+        <v>0.02671738551472824</v>
       </c>
       <c r="C5" t="n">
-        <v>1.368160748340322e-06</v>
+        <v>0.0008807620823021353</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Parent]</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.9780891929487858</v>
+        <v>0.0888168800387439</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01879499310503884</v>
+        <v>0.656044540868433</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.3465464154233534</v>
+        <v>0.6033576485797948</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03757868045086351</v>
+        <v>0.06838808933229164</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0004973913659043771</v>
+        <v>0.123361941542043</v>
       </c>
       <c r="C8" t="n">
-        <v>2.502242458397489e-06</v>
+        <v>0.770902176344654</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02328533797357115</v>
+        <v>-4.191405082310119e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>0.007087260979737138</v>
+        <v>0.6368930946396077</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.007661444932498101</v>
+        <v>-1.43915905832131e-07</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9713009788030071</v>
+        <v>0.2250359176779644</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7226106367100301</v>
+        <v>0.1623025230184543</v>
       </c>
       <c r="C11" t="n">
-        <v>0.03595476102067639</v>
+        <v>0.1701238298009051</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.06107226489143966</v>
+        <v>0.07399583242355298</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8919878899754552</v>
+        <v>0.4080509753639473</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-3.268962948530477e-05</v>
+        <v>0.5839604301215724</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7272384021977327</v>
+        <v>0.5332193509104484</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.497263281513426e-07</v>
+        <v>-0.005645009995746893</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2242727559001829</v>
+        <v>0.8734506083153198</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.1362053778471579</v>
+        <v>0.002898111282809497</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2663312303576312</v>
+        <v>0.7953057379698684</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.05407323507200072</v>
+        <v>1.45215847114301</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5640887508412911</v>
+        <v>0.5083424194521412</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.8099038011449374</v>
+        <v>4.490026687466891</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4062491911441303</v>
+        <v>0.01091815742183559</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>transit_accessibility</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01527467454063766</v>
+        <v>-8.009966395795931e-05</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6711998504917225</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>street_length</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0.002438160427900284</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.8341188525975649</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>LU_UrbFab</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>2.46920026331397</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.2804164825139531</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LU_Comm</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>5.305601745355532</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.003892710827415816</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>transit_accessibility</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-0.0001410386552120511</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.4575549674500139</v>
+        <v>0.664501286285211</v>
       </c>
     </row>
   </sheetData>
@@ -1670,7 +1462,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1702,270 +1494,218 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.794121315680979</v>
+        <v>-3.959132479550341</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4635805963272768</v>
+        <v>0.09394281542594185</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult_Kids]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.05044072951782767</v>
+        <v>0.3451707308385769</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8977726869665696</v>
+        <v>0.0005410224282237291</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female]</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.538755731575078</v>
+        <v>0.0005973442873055942</v>
       </c>
       <c r="C4" t="n">
-        <v>8.86736993652779e-07</v>
+        <v>3.994487893252029e-09</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.9974715822977249</v>
+        <v>0.02760843024550151</v>
       </c>
       <c r="C5" t="n">
-        <v>0.004381989082349626</v>
+        <v>0.0005312726403407097</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Parent]</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.076426874712717</v>
+        <v>0.0159602109574556</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01085866627998058</v>
+        <v>0.9368351912949733</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.04639099715962592</v>
+        <v>0.7820771972355175</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7958791041842707</v>
+        <v>0.02287843026864182</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.00047098328428663</v>
+        <v>0.2897562849410369</v>
       </c>
       <c r="C8" t="n">
-        <v>4.757698573330887e-06</v>
+        <v>0.5009298096807977</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0240378506188672</v>
+        <v>7.416904702562786e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.004913130130781452</v>
+        <v>0.9340102887571018</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.07655110563877876</v>
+        <v>-1.341903824482753e-07</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7183065455558058</v>
+        <v>0.2603004650776128</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9327278465068382</v>
+        <v>0.1812901658407813</v>
       </c>
       <c r="C11" t="n">
-        <v>0.009107141060895963</v>
+        <v>0.1379839102905414</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2979703107689918</v>
+        <v>0.09666566301146796</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5108091953234351</v>
+        <v>0.2915026812740907</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.654717746688235e-05</v>
+        <v>-0.3728019671883512</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7762512343919619</v>
+        <v>0.6900278121458372</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.260808173053362e-07</v>
+        <v>0.006446093964014042</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3036392794613588</v>
+        <v>0.8546816005461156</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.1521633374008487</v>
+        <v>0.00128122171357647</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2262704628687787</v>
+        <v>0.9099142077639835</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.07774692909301045</v>
+        <v>-1.07217561008443</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4145588904546352</v>
+        <v>0.6255552300442594</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.4223505718108779</v>
+        <v>4.017219213840574</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6582539968620371</v>
+        <v>0.02519618127437356</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>transit_accessibility</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>8.564715380231549e-05</v>
+        <v>-6.760606977524095e-05</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9980623890644398</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>street_length</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-0.0004331747728960983</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.970032715554022</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>LU_UrbFab</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>-0.5878025716486941</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.7945818387818244</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LU_Comm</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>4.37286204374533</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.01712190828845163</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>transit_accessibility</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-0.0001057138364442033</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.5774353089887556</v>
+        <v>0.7171156116437549</v>
       </c>
     </row>
   </sheetData>
@@ -1979,7 +1719,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2011,270 +1751,218 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.129324188487728</v>
+        <v>-3.670279094249477</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6464562104882215</v>
+        <v>0.1180982413509136</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult_Kids]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6873658696468437</v>
+        <v>0.1773403654653835</v>
       </c>
       <c r="C3" t="n">
-        <v>0.08704378775479153</v>
+        <v>0.07169961710101659</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female]</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2.134875027011317</v>
+        <v>0.0006750720137727758</v>
       </c>
       <c r="C4" t="n">
-        <v>3.235712179943375e-12</v>
+        <v>9.19735109946808e-11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1.612415268242932</v>
+        <v>0.02612706053507736</v>
       </c>
       <c r="C5" t="n">
-        <v>1.410857201726128e-06</v>
+        <v>0.001188030375397997</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Parent]</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.9307331048142163</v>
+        <v>-0.04605629500559469</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02703312282582252</v>
+        <v>0.8166057074575602</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.5258533257564022</v>
+        <v>0.7089281197444113</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001157132876179853</v>
+        <v>0.03688980525892643</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0005319654590329883</v>
+        <v>0.1304188590185596</v>
       </c>
       <c r="C8" t="n">
-        <v>4.854224212143186e-07</v>
+        <v>0.7648890358912317</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02545129659913907</v>
+        <v>4.282588942382259e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>0.003135295765322484</v>
+        <v>0.6347052884280231</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1514748500346638</v>
+        <v>-1.08843895691e-07</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4752429103051912</v>
+        <v>0.3542351101454766</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7712943710246393</v>
+        <v>0.1199127366637608</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02766316408517833</v>
+        <v>0.2958039888109886</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.04880436555060453</v>
+        <v>0.06594647568945386</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9159140468254693</v>
+        <v>0.4448924191591306</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4.76575364676888e-05</v>
+        <v>-0.381042555065203</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6181520781848144</v>
+        <v>0.6817733058285047</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.256165478884939e-07</v>
+        <v>-0.01578287647755165</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3048329202681661</v>
+        <v>0.6530943355752923</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.1056262003150238</v>
+        <v>0.002930924181615798</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3793280828106946</v>
+        <v>0.791768288708928</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.04361054361033738</v>
+        <v>1.004643459896223</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6328733385552718</v>
+        <v>0.6428542881954112</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.269883305778679</v>
+        <v>4.205685839353494</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7788855692600752</v>
+        <v>0.01580343037273043</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>transit_accessibility</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.0176362709132973</v>
+        <v>-4.067819634454408e-05</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6217056937165256</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>street_length</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0.003423189283167852</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.7680178804152792</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>LU_UrbFab</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>1.60599817526908</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.4776153023778933</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LU_Comm</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>5.050105965207573</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.005316911258475772</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>transit_accessibility</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-0.0001106072583932445</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.5549847296875722</v>
+        <v>0.8216847704974189</v>
       </c>
     </row>
   </sheetData>
@@ -2288,7 +1976,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2320,270 +2008,218 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2.167334390024547</v>
+        <v>-4.002125802459585</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3936790628068048</v>
+        <v>0.1000639240964812</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult_Kids]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.201325772421036</v>
+        <v>0.2848919810651668</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6015281718093893</v>
+        <v>0.002486107700743722</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female]</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.833752050561865</v>
+        <v>0.0005915090257164007</v>
       </c>
       <c r="C4" t="n">
-        <v>2.457862505542353e-09</v>
+        <v>6.374210638323794e-09</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1.360378727979903</v>
+        <v>0.02672374543185215</v>
       </c>
       <c r="C5" t="n">
-        <v>5.19532888586094e-05</v>
+        <v>0.0008347759828435407</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Parent]</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.7227013194377458</v>
+        <v>-0.0927060836400299</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1081742850509068</v>
+        <v>0.6487574551862871</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.1989197734679441</v>
+        <v>0.7309038588173796</v>
       </c>
       <c r="C7" t="n">
-        <v>0.222174004403445</v>
+        <v>0.02666846795376178</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0004526094354052502</v>
+        <v>0.155265022049314</v>
       </c>
       <c r="C8" t="n">
-        <v>1.293671711576121e-05</v>
+        <v>0.7191764990467833</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02445013751452491</v>
+        <v>-2.474764553706289e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>0.00453396813282503</v>
+        <v>0.7854906205386529</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1854391561372603</v>
+        <v>-9.185796150344335e-08</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3915098476060549</v>
+        <v>0.4487734255977823</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.8386017441850734</v>
+        <v>0.2061092832779085</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01402308736583165</v>
+        <v>0.1118390643997154</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.08220818582641895</v>
+        <v>0.1456188411435601</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8575061580048534</v>
+        <v>0.1273428131369261</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1.648356565004899e-05</v>
+        <v>-0.03824924571736767</v>
       </c>
       <c r="C13" t="n">
-        <v>0.862884017656355</v>
+        <v>0.9680909499879163</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-8.45253367338622e-08</v>
+        <v>0.007736341882487209</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5011886258268722</v>
+        <v>0.8288991392142853</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.2064533908193385</v>
+        <v>-0.0005023889216300639</v>
       </c>
       <c r="C15" t="n">
-        <v>0.128654616085867</v>
+        <v>0.9656009399421852</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.142221455590293</v>
+        <v>-0.01867649061887015</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1590699639687619</v>
+        <v>0.9932515838170938</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.1904348878526009</v>
+        <v>3.71085817249684</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8475057849574804</v>
+        <v>0.03830849881014967</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>transit_accessibility</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.001068397335472407</v>
+        <v>-8.830571823345764e-05</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9763457541376906</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>street_length</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0.0003039587699293567</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.979858778998958</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>LU_UrbFab</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0.6541028888764663</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.7757372852083791</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LU_Comm</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>4.464356413869151</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.01588014742402441</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>transit_accessibility</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-0.0001199908640949439</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.5267187712125658</v>
+        <v>0.6330638150635943</v>
       </c>
     </row>
   </sheetData>
@@ -2597,7 +2233,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2629,270 +2265,218 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.655679368781766</v>
+        <v>-4.002763709585486</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4988165280468185</v>
+        <v>0.08621665644662568</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult_Kids]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2565889758298847</v>
+        <v>0.2737567747118398</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5223500348211475</v>
+        <v>0.004147989657708467</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female]</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.954671345309116</v>
+        <v>0.000643776911860864</v>
       </c>
       <c r="C4" t="n">
-        <v>2.742139540610319e-10</v>
+        <v>4.482595900963302e-10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1.264799693021301</v>
+        <v>0.03048616026167443</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0001899679373709568</v>
+        <v>0.000171109594949059</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Parent]</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.330659803085266</v>
+        <v>0.06281811708993844</v>
       </c>
       <c r="C6" t="n">
-        <v>0.002219910867403445</v>
+        <v>0.7532792234225565</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.224894169299735</v>
+        <v>0.5732169568251039</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1819181087568487</v>
+        <v>0.09007939204522228</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.000480653186761369</v>
+        <v>-0.05231084473356302</v>
       </c>
       <c r="C8" t="n">
-        <v>4.079288647111025e-06</v>
+        <v>0.9052203990499954</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02824359523563711</v>
+        <v>-4.465124619269012e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001349877578393964</v>
+        <v>0.6124867770743445</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.04506223395518939</v>
+        <v>-1.368899384769316e-07</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8326257405501557</v>
+        <v>0.2538218606997844</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.727323929106475</v>
+        <v>0.164527104764439</v>
       </c>
       <c r="C11" t="n">
-        <v>0.03923600755445916</v>
+        <v>0.160824015116356</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.1188802790099627</v>
+        <v>0.04532674024692056</v>
       </c>
       <c r="C12" t="n">
-        <v>0.799501174908227</v>
+        <v>0.6123968500623646</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-3.542291093816962e-05</v>
+        <v>0.2718618197813846</v>
       </c>
       <c r="C13" t="n">
-        <v>0.703357212197834</v>
+        <v>0.7720838901677877</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.335055802994129e-07</v>
+        <v>-0.009896404137144077</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2831760535450091</v>
+        <v>0.7773180501715762</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.1398612017911838</v>
+        <v>0.003690119242973003</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2488204494801152</v>
+        <v>0.7367304572842643</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.02394239292780716</v>
+        <v>1.305758277402554</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7978264030630535</v>
+        <v>0.5489952045352267</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.3911167056325815</v>
+        <v>4.214126646982035</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6889668784732301</v>
+        <v>0.01713552733210115</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>transit_accessibility</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01958024193644205</v>
+        <v>-1.406009447593979e-05</v>
       </c>
       <c r="C18" t="n">
-        <v>0.582666155962573</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>street_length</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0.002799370012241789</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.8057038960991101</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>LU_UrbFab</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>2.376323412123093</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.295450101965263</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LU_Comm</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>4.890272535499741</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.007760967308364283</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>transit_accessibility</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-6.733313388195968e-05</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.7257750265151004</v>
+        <v>0.9398990075950951</v>
       </c>
     </row>
   </sheetData>
@@ -2906,7 +2490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2938,270 +2522,218 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.901775940321695</v>
+        <v>-4.033857928584744</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4583517979180198</v>
+        <v>0.09945472686632058</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult_Kids]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.480975092447518</v>
+        <v>0.2765322390020736</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2367773854797166</v>
+        <v>0.004248491445391288</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female]</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.986088332492154</v>
+        <v>0.0006302556704903841</v>
       </c>
       <c r="C4" t="n">
-        <v>2.753745874848144e-10</v>
+        <v>1.467848328710769e-09</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1.430845782050854</v>
+        <v>0.02948127289401729</v>
       </c>
       <c r="C5" t="n">
-        <v>2.913350709431281e-05</v>
+        <v>0.0002717989237559516</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Parent]</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.9126417716876535</v>
+        <v>-0.1607390016949884</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03283432187537549</v>
+        <v>0.4363106344608686</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.3084521299979716</v>
+        <v>0.7478771012125891</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0694543982725819</v>
+        <v>0.0243983021526894</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.000470847794020204</v>
+        <v>0.1605238800286247</v>
       </c>
       <c r="C8" t="n">
-        <v>1.198779085982565e-05</v>
+        <v>0.7069256670661065</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0279897130598571</v>
+        <v>8.555789031736483e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001248180495241229</v>
+        <v>0.9246540934847249</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.25403399820561</v>
+        <v>-2.088497672798912e-08</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2503012258709486</v>
+        <v>0.8674729800659102</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.8500849623025559</v>
+        <v>0.2032571041323972</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01519539530141576</v>
+        <v>0.1278091013098085</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.07051656216004842</v>
+        <v>0.1047607942686272</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8771162721599159</v>
+        <v>0.2948576419446715</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.316239124861144e-05</v>
+        <v>-0.4863932348963004</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8079761364342481</v>
+        <v>0.6074310832949603</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-2.802437940415774e-08</v>
+        <v>0.008368376314013017</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8280847552406569</v>
+        <v>0.8212093845295875</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.1872946845792538</v>
+        <v>0.0008621028629197544</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1722344182436031</v>
+        <v>0.9415484024747609</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.09654883952262866</v>
+        <v>-0.5452496005112243</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3515620347581299</v>
+        <v>0.8144256837947862</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.3448293544578773</v>
+        <v>3.748030444444999</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7253547212507829</v>
+        <v>0.03997203416884597</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>transit_accessibility</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.002534054699231463</v>
+        <v>-0.0001804282755448752</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9461180631518883</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>street_length</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0.001551750869256319</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.8983866221891673</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>LU_UrbFab</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0.1677913655412299</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.9443080949320362</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LU_Comm</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>4.596024199149111</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.01567063459004781</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>transit_accessibility</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-0.0002148854983978633</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.2638896745228035</v>
+        <v>0.3336657903451675</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/carown_LR_new/Dresden.xlsx
+++ b/outputs/ML_Results/carown_LR_new/Dresden.xlsx
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-3.998674065090249</v>
+        <v>-4.068270092831237</v>
       </c>
       <c r="C2" t="n">
-        <v>0.08956791235634928</v>
+        <v>0.08458719366150616</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2189947318250469</v>
+        <v>0.2185575888239275</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02049800916455411</v>
+        <v>0.02067049854673651</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0006673908731647275</v>
+        <v>0.0006663590491513538</v>
       </c>
       <c r="C4" t="n">
-        <v>1.277911861363985e-10</v>
+        <v>1.356812485630092e-10</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02299499712640721</v>
+        <v>0.0229492652977504</v>
       </c>
       <c r="C5" t="n">
-        <v>0.003639602139753707</v>
+        <v>0.003706571610027814</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.009664533028776595</v>
+        <v>-0.009578621089491254</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9612009963842201</v>
+        <v>0.9615370491288101</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.649732277471828</v>
+        <v>0.6508260819447267</v>
       </c>
       <c r="C7" t="n">
-        <v>0.05163643436290704</v>
+        <v>0.05138273267428455</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2757982069672833</v>
+        <v>0.273893371135709</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5194121900979596</v>
+        <v>0.522575160033214</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-7.013230344893405e-06</v>
+        <v>-0.001195540548625694</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9365502803920085</v>
+        <v>0.8918011542735932</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-5.815280081436424e-08</v>
+        <v>-0.07121795578135193</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6250070162471837</v>
+        <v>0.5439554192050872</v>
       </c>
     </row>
     <row r="11">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1455860753220531</v>
+        <v>0.14630530291906</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2289687607992286</v>
+        <v>0.2295967357989553</v>
       </c>
     </row>
     <row r="12">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.08178834864715148</v>
+        <v>0.08452843161878837</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3687791294450826</v>
+        <v>0.3532380032446942</v>
       </c>
     </row>
     <row r="13">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.01269630153753263</v>
+        <v>-0.0005295046223737946</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9891555516684377</v>
+        <v>0.9546981581159976</v>
       </c>
     </row>
     <row r="14">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.001407173986678247</v>
+        <v>0.001388670057522741</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9686278607673907</v>
+        <v>0.96907596418291</v>
       </c>
     </row>
     <row r="15">
@@ -635,10 +635,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.004141308091578862</v>
+        <v>0.004939436842569445</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7151795704329953</v>
+        <v>0.6628206475795713</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.8788217972525708</v>
+        <v>0.007073716192686634</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6924746971324052</v>
+        <v>0.747971671493499</v>
       </c>
     </row>
     <row r="17">
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3.907722464684674</v>
+        <v>0.03772437302996313</v>
       </c>
       <c r="C17" t="n">
-        <v>0.02516683699986131</v>
+        <v>0.03079210617490944</v>
       </c>
     </row>
     <row r="18">
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.0001979985609519264</v>
+        <v>-0.01008644413034244</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2824740918425294</v>
+        <v>0.3761425387439769</v>
       </c>
     </row>
   </sheetData>
@@ -723,10 +723,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-4.580854534550159</v>
+        <v>-4.61543856173913</v>
       </c>
       <c r="C2" t="n">
-        <v>0.06224067770972044</v>
+        <v>0.0605042906690175</v>
       </c>
     </row>
     <row r="3">
@@ -736,10 +736,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1953452190536123</v>
+        <v>0.195337456391019</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03307701679016523</v>
+        <v>0.03303394421095485</v>
       </c>
     </row>
     <row r="4">
@@ -749,10 +749,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0006404846449344435</v>
+        <v>0.000639826500352387</v>
       </c>
       <c r="C4" t="n">
-        <v>3.553602696092082e-10</v>
+        <v>3.661690337280877e-10</v>
       </c>
     </row>
     <row r="5">
@@ -762,10 +762,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02273391140408067</v>
+        <v>0.022699544419428</v>
       </c>
       <c r="C5" t="n">
-        <v>0.005228744016563811</v>
+        <v>0.005294273091424121</v>
       </c>
     </row>
     <row r="6">
@@ -775,10 +775,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.1824824599387717</v>
+        <v>-0.1833106173097912</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3773914126050423</v>
+        <v>0.3752353813502552</v>
       </c>
     </row>
     <row r="7">
@@ -788,10 +788,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6416836959542217</v>
+        <v>0.6422178005799254</v>
       </c>
       <c r="C7" t="n">
-        <v>0.05062897431261396</v>
+        <v>0.05048349702717482</v>
       </c>
     </row>
     <row r="8">
@@ -801,10 +801,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.3466391088250635</v>
+        <v>0.3460919392450126</v>
       </c>
       <c r="C8" t="n">
-        <v>0.427876877127531</v>
+        <v>0.428734395916526</v>
       </c>
     </row>
     <row r="9">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-6.100951920778502e-05</v>
+        <v>-0.006398892306383465</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5106433349858066</v>
+        <v>0.488674190566878</v>
       </c>
     </row>
     <row r="10">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-8.863681079494382e-08</v>
+        <v>-0.09649780810312809</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4693579032794996</v>
+        <v>0.4232283842534655</v>
       </c>
     </row>
     <row r="11">
@@ -840,10 +840,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1248197188345617</v>
+        <v>0.124816975918877</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3074955909858268</v>
+        <v>0.3098180030859512</v>
       </c>
     </row>
     <row r="12">
@@ -853,10 +853,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1273526966486773</v>
+        <v>0.1285949639084063</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1649544993592407</v>
+        <v>0.1609647723477322</v>
       </c>
     </row>
     <row r="13">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1400834663979372</v>
+        <v>0.001197111291666842</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8805613102268749</v>
+        <v>0.8975774865581267</v>
       </c>
     </row>
     <row r="14">
@@ -879,10 +879,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.0116286515333132</v>
+        <v>0.01156322950002027</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7518070238619399</v>
+        <v>0.7536471191494619</v>
       </c>
     </row>
     <row r="15">
@@ -892,10 +892,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.008153437054298369</v>
+        <v>0.008630826012613895</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5010026565599837</v>
+        <v>0.47414522324497</v>
       </c>
     </row>
     <row r="16">
@@ -905,10 +905,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.7256516050917614</v>
+        <v>0.006333812649992617</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7470994338613627</v>
+        <v>0.7763180953889416</v>
       </c>
     </row>
     <row r="17">
@@ -918,10 +918,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3.599087637948079</v>
+        <v>0.03516138451978024</v>
       </c>
       <c r="C17" t="n">
-        <v>0.04218641203360846</v>
+        <v>0.04739254772259122</v>
       </c>
     </row>
     <row r="18">
@@ -931,10 +931,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-9.388961601173393e-05</v>
+        <v>-0.004526267830499373</v>
       </c>
       <c r="C18" t="n">
-        <v>0.629283672944547</v>
+        <v>0.7075211878084993</v>
       </c>
     </row>
   </sheetData>
@@ -980,10 +980,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-5.042742336732331</v>
+        <v>-5.099563687101621</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03370165623557111</v>
+        <v>0.03213509838555394</v>
       </c>
     </row>
     <row r="3">
@@ -993,10 +993,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2435565491468913</v>
+        <v>0.2439297102326026</v>
       </c>
       <c r="C3" t="n">
-        <v>0.009502605729457539</v>
+        <v>0.009357428406428954</v>
       </c>
     </row>
     <row r="4">
@@ -1006,10 +1006,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0006525916230594678</v>
+        <v>0.000651018898660705</v>
       </c>
       <c r="C4" t="n">
-        <v>1.461347863012369e-10</v>
+        <v>1.59103429765761e-10</v>
       </c>
     </row>
     <row r="5">
@@ -1019,10 +1019,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02412249288826637</v>
+        <v>0.02404723221365144</v>
       </c>
       <c r="C5" t="n">
-        <v>0.002267670616271113</v>
+        <v>0.002338627535991574</v>
       </c>
     </row>
     <row r="6">
@@ -1032,10 +1032,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.07295458764644337</v>
+        <v>-0.07451729591059265</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7139559988583599</v>
+        <v>0.7080088985946327</v>
       </c>
     </row>
     <row r="7">
@@ -1045,10 +1045,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5663556634619364</v>
+        <v>0.5675210239281044</v>
       </c>
       <c r="C7" t="n">
-        <v>0.08002905013887193</v>
+        <v>0.07952921049411844</v>
       </c>
     </row>
     <row r="8">
@@ -1058,10 +1058,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2027511764196432</v>
+        <v>0.2017071495984776</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6306614703602047</v>
+        <v>0.6326280429242592</v>
       </c>
     </row>
     <row r="9">
@@ -1071,10 +1071,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2.008347382149554e-05</v>
+        <v>-0.002476954530363047</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8234435196830341</v>
+        <v>0.783005230431812</v>
       </c>
     </row>
     <row r="10">
@@ -1084,10 +1084,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-5.508092493783609e-08</v>
+        <v>-0.07038724645184048</v>
       </c>
       <c r="C10" t="n">
-        <v>0.642925965962918</v>
+        <v>0.5481060539401699</v>
       </c>
     </row>
     <row r="11">
@@ -1097,10 +1097,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2565273833279711</v>
+        <v>0.2567688164592464</v>
       </c>
       <c r="C11" t="n">
-        <v>0.03886959430305634</v>
+        <v>0.0400267652461442</v>
       </c>
     </row>
     <row r="12">
@@ -1110,10 +1110,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1058234478467073</v>
+        <v>0.1086247974414857</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2448915541097891</v>
+        <v>0.2332747162425851</v>
       </c>
     </row>
     <row r="13">
@@ -1123,10 +1123,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.2293717462140738</v>
+        <v>0.00173816279502769</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8069019307385179</v>
+        <v>0.8525465054855738</v>
       </c>
     </row>
     <row r="14">
@@ -1136,10 +1136,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.01608542147934365</v>
+        <v>0.01587560036525181</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6447961360478645</v>
+        <v>0.6494714791993793</v>
       </c>
     </row>
     <row r="15">
@@ -1149,10 +1149,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.00578732197045981</v>
+        <v>0.006622342896371056</v>
       </c>
       <c r="C15" t="n">
-        <v>0.611478522180934</v>
+        <v>0.5610269500255575</v>
       </c>
     </row>
     <row r="16">
@@ -1162,10 +1162,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.4115092067326836</v>
+        <v>0.002041328368972263</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8501331852916072</v>
+        <v>0.9245724536358819</v>
       </c>
     </row>
     <row r="17">
@@ -1175,10 +1175,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4.629693621915093</v>
+        <v>0.04461017035544215</v>
       </c>
       <c r="C17" t="n">
-        <v>0.009331956996781325</v>
+        <v>0.0122062584732706</v>
       </c>
     </row>
     <row r="18">
@@ -1188,10 +1188,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.0002306132278410697</v>
+        <v>-0.0117627591292366</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2096242049841399</v>
+        <v>0.301312128627804</v>
       </c>
     </row>
   </sheetData>
@@ -1237,10 +1237,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-4.070371940942221</v>
+        <v>-4.097576661240876</v>
       </c>
       <c r="C2" t="n">
-        <v>0.08350059428588455</v>
+        <v>0.08166658667587842</v>
       </c>
     </row>
     <row r="3">
@@ -1250,10 +1250,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2733656480264006</v>
+        <v>0.273204466322364</v>
       </c>
       <c r="C3" t="n">
-        <v>0.003858662469818237</v>
+        <v>0.003871506587610998</v>
       </c>
     </row>
     <row r="4">
@@ -1263,10 +1263,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0006485772627478998</v>
+        <v>0.0006481873459204973</v>
       </c>
       <c r="C4" t="n">
-        <v>3.43790253218623e-10</v>
+        <v>3.533561669760999e-10</v>
       </c>
     </row>
     <row r="5">
@@ -1276,10 +1276,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02671738551472824</v>
+        <v>0.02671405460890202</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0008807620823021353</v>
+        <v>0.0008837350211016941</v>
       </c>
     </row>
     <row r="6">
@@ -1289,10 +1289,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0888168800387439</v>
+        <v>0.08801763507911357</v>
       </c>
       <c r="C6" t="n">
-        <v>0.656044540868433</v>
+        <v>0.6589301098671325</v>
       </c>
     </row>
     <row r="7">
@@ -1302,10 +1302,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6033576485797948</v>
+        <v>0.6043734664144391</v>
       </c>
       <c r="C7" t="n">
-        <v>0.06838808933229164</v>
+        <v>0.06796263484200399</v>
       </c>
     </row>
     <row r="8">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.123361941542043</v>
+        <v>0.1224484395890062</v>
       </c>
       <c r="C8" t="n">
-        <v>0.770902176344654</v>
+        <v>0.7726441726290271</v>
       </c>
     </row>
     <row r="9">
@@ -1328,10 +1328,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-4.191405082310119e-05</v>
+        <v>-0.00448231182854294</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6368930946396077</v>
+        <v>0.6123961062949642</v>
       </c>
     </row>
     <row r="10">
@@ -1341,10 +1341,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1.43915905832131e-07</v>
+        <v>-0.1515759339456373</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2250359176779644</v>
+        <v>0.1955406159018027</v>
       </c>
     </row>
     <row r="11">
@@ -1354,10 +1354,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1623025230184543</v>
+        <v>0.1618839674365739</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1701238298009051</v>
+        <v>0.1735369463291848</v>
       </c>
     </row>
     <row r="12">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.07399583242355298</v>
+        <v>0.07542245252175521</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4080509753639473</v>
+        <v>0.3991984107251645</v>
       </c>
     </row>
     <row r="13">
@@ -1380,10 +1380,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5839604301215724</v>
+        <v>0.005636084917037834</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5332193509104484</v>
+        <v>0.5468198647099038</v>
       </c>
     </row>
     <row r="14">
@@ -1393,10 +1393,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.005645009995746893</v>
+        <v>-0.005866575914168675</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8734506083153198</v>
+        <v>0.868763561723394</v>
       </c>
     </row>
     <row r="15">
@@ -1406,10 +1406,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.002898111282809497</v>
+        <v>0.003328597853628568</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7953057379698684</v>
+        <v>0.7647845566311674</v>
       </c>
     </row>
     <row r="16">
@@ -1419,10 +1419,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.45215847114301</v>
+        <v>0.01358234398742279</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5083424194521412</v>
+        <v>0.5326488470771903</v>
       </c>
     </row>
     <row r="17">
@@ -1432,10 +1432,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4.490026687466891</v>
+        <v>0.0439142823374675</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01091815742183559</v>
+        <v>0.01280923948021349</v>
       </c>
     </row>
     <row r="18">
@@ -1445,10 +1445,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-8.009966395795931e-05</v>
+        <v>-0.003493615532893472</v>
       </c>
       <c r="C18" t="n">
-        <v>0.664501286285211</v>
+        <v>0.7602807050557772</v>
       </c>
     </row>
   </sheetData>
@@ -1494,10 +1494,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-3.959132479550341</v>
+        <v>-3.971294413730185</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09394281542594185</v>
+        <v>0.09340472141472728</v>
       </c>
     </row>
     <row r="3">
@@ -1507,10 +1507,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3451707308385769</v>
+        <v>0.3454641549118597</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0005410224282237291</v>
+        <v>0.0005372892537860786</v>
       </c>
     </row>
     <row r="4">
@@ -1520,10 +1520,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0005973442873055942</v>
+        <v>0.0005964859018109185</v>
       </c>
       <c r="C4" t="n">
-        <v>3.994487893252029e-09</v>
+        <v>4.211431289014787e-09</v>
       </c>
     </row>
     <row r="5">
@@ -1533,10 +1533,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02760843024550151</v>
+        <v>0.02757360551647596</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0005312726403407097</v>
+        <v>0.0005408564379902374</v>
       </c>
     </row>
     <row r="6">
@@ -1546,10 +1546,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0159602109574556</v>
+        <v>0.01431646466118977</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9368351912949733</v>
+        <v>0.9433312614036899</v>
       </c>
     </row>
     <row r="7">
@@ -1559,10 +1559,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7820771972355175</v>
+        <v>0.7807352981304201</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02287843026864182</v>
+        <v>0.02317572644913984</v>
       </c>
     </row>
     <row r="8">
@@ -1572,10 +1572,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2897562849410369</v>
+        <v>0.2867348622966018</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5009298096807977</v>
+        <v>0.5055932597312965</v>
       </c>
     </row>
     <row r="9">
@@ -1585,10 +1585,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7.416904702562786e-06</v>
+        <v>0.0004455060203556401</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9340102887571018</v>
+        <v>0.9602742131296168</v>
       </c>
     </row>
     <row r="10">
@@ -1598,10 +1598,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1.341903824482753e-07</v>
+        <v>-0.1448016320446491</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2603004650776128</v>
+        <v>0.2182299899235534</v>
       </c>
     </row>
     <row r="11">
@@ -1611,10 +1611,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1812901658407813</v>
+        <v>0.179410674305692</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1379839102905414</v>
+        <v>0.1445188002007952</v>
       </c>
     </row>
     <row r="12">
@@ -1624,10 +1624,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.09666566301146796</v>
+        <v>0.09888056034414248</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2915026812740907</v>
+        <v>0.2809580817423903</v>
       </c>
     </row>
     <row r="13">
@@ -1637,10 +1637,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.3728019671883512</v>
+        <v>-0.004034188730288793</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6900278121458372</v>
+        <v>0.6651136840891603</v>
       </c>
     </row>
     <row r="14">
@@ -1650,10 +1650,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.006446093964014042</v>
+        <v>0.005679433047093536</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8546816005461156</v>
+        <v>0.8720153346893929</v>
       </c>
     </row>
     <row r="15">
@@ -1663,10 +1663,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.00128122171357647</v>
+        <v>0.001805145243193599</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9099142077639835</v>
+        <v>0.8730799387565539</v>
       </c>
     </row>
     <row r="16">
@@ -1676,10 +1676,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1.07217561008443</v>
+        <v>-0.0119892519991901</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6255552300442594</v>
+        <v>0.5818181673620109</v>
       </c>
     </row>
     <row r="17">
@@ -1689,10 +1689,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4.017219213840574</v>
+        <v>0.03859195252631454</v>
       </c>
       <c r="C17" t="n">
-        <v>0.02519618127437356</v>
+        <v>0.03185060289529346</v>
       </c>
     </row>
     <row r="18">
@@ -1702,10 +1702,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-6.760606977524095e-05</v>
+        <v>-0.001859111209067666</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7171156116437549</v>
+        <v>0.8723235790401885</v>
       </c>
     </row>
   </sheetData>
@@ -1751,10 +1751,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-3.670279094249477</v>
+        <v>-3.678657806050162</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1180982413509136</v>
+        <v>0.117581921332446</v>
       </c>
     </row>
     <row r="3">
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1773403654653835</v>
+        <v>0.177658246558066</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07169961710101659</v>
+        <v>0.07115011220364012</v>
       </c>
     </row>
     <row r="4">
@@ -1777,10 +1777,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0006750720137727758</v>
+        <v>0.0006744523155758106</v>
       </c>
       <c r="C4" t="n">
-        <v>9.19735109946808e-11</v>
+        <v>9.517233681385788e-11</v>
       </c>
     </row>
     <row r="5">
@@ -1790,10 +1790,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02612706053507736</v>
+        <v>0.02615010264944263</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001188030375397997</v>
+        <v>0.001180658187392528</v>
       </c>
     </row>
     <row r="6">
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.04605629500559469</v>
+        <v>-0.04627794211907981</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8166057074575602</v>
+        <v>0.8157399569776751</v>
       </c>
     </row>
     <row r="7">
@@ -1816,10 +1816,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7089281197444113</v>
+        <v>0.7085560941896074</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03688980525892643</v>
+        <v>0.03700666274800787</v>
       </c>
     </row>
     <row r="8">
@@ -1829,10 +1829,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1304188590185596</v>
+        <v>0.1277994106219857</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7648890358912317</v>
+        <v>0.7695534599275052</v>
       </c>
     </row>
     <row r="9">
@@ -1842,10 +1842,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.282588942382259e-05</v>
+        <v>0.004070126732058647</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6347052884280231</v>
+        <v>0.6507734046600222</v>
       </c>
     </row>
     <row r="10">
@@ -1855,10 +1855,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1.08843895691e-07</v>
+        <v>-0.1159429376010226</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3542351101454766</v>
+        <v>0.3164196104869923</v>
       </c>
     </row>
     <row r="11">
@@ -1868,10 +1868,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1199127366637608</v>
+        <v>0.1182992370289629</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2958039888109886</v>
+        <v>0.3047476844759773</v>
       </c>
     </row>
     <row r="12">
@@ -1881,10 +1881,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.06594647568945386</v>
+        <v>0.06684590753964728</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4448924191591306</v>
+        <v>0.4388553085321009</v>
       </c>
     </row>
     <row r="13">
@@ -1894,10 +1894,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.381042555065203</v>
+        <v>-0.004020830739639743</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6817733058285047</v>
+        <v>0.664297253392647</v>
       </c>
     </row>
     <row r="14">
@@ -1907,10 +1907,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.01578287647755165</v>
+        <v>-0.01621281164781652</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6530943355752923</v>
+        <v>0.6448521882700049</v>
       </c>
     </row>
     <row r="15">
@@ -1920,10 +1920,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.002930924181615798</v>
+        <v>0.003276348814170665</v>
       </c>
       <c r="C15" t="n">
-        <v>0.791768288708928</v>
+        <v>0.7670586575842002</v>
       </c>
     </row>
     <row r="16">
@@ -1933,10 +1933,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.004643459896223</v>
+        <v>0.009258261242027051</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6428542881954112</v>
+        <v>0.6664592725179688</v>
       </c>
     </row>
     <row r="17">
@@ -1946,10 +1946,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4.205685839353494</v>
+        <v>0.04108783277723751</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01580343037273043</v>
+        <v>0.01845949462546911</v>
       </c>
     </row>
     <row r="18">
@@ -1959,10 +1959,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-4.067819634454408e-05</v>
+        <v>-0.001057887663613348</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8216847704974189</v>
+        <v>0.9246985276165471</v>
       </c>
     </row>
   </sheetData>
@@ -2008,10 +2008,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-4.002125802459585</v>
+        <v>-4.008784791042936</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1000639240964812</v>
+        <v>0.1002176086705462</v>
       </c>
     </row>
     <row r="3">
@@ -2021,10 +2021,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2848919810651668</v>
+        <v>0.2848955307063263</v>
       </c>
       <c r="C3" t="n">
-        <v>0.002486107700743722</v>
+        <v>0.002483005393072428</v>
       </c>
     </row>
     <row r="4">
@@ -2034,10 +2034,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0005915090257164007</v>
+        <v>0.0005911700994476816</v>
       </c>
       <c r="C4" t="n">
-        <v>6.374210638323794e-09</v>
+        <v>6.52267625420562e-09</v>
       </c>
     </row>
     <row r="5">
@@ -2047,10 +2047,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02672374543185215</v>
+        <v>0.02672483208249173</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0008347759828435407</v>
+        <v>0.0008365901003345297</v>
       </c>
     </row>
     <row r="6">
@@ -2060,10 +2060,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0927060836400299</v>
+        <v>-0.09346274977326695</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6487574551862871</v>
+        <v>0.6460706709135835</v>
       </c>
     </row>
     <row r="7">
@@ -2073,10 +2073,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7309038588173796</v>
+        <v>0.7295768040247225</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02666846795376178</v>
+        <v>0.02702815014270556</v>
       </c>
     </row>
     <row r="8">
@@ -2086,10 +2086,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.155265022049314</v>
+        <v>0.1517497794469103</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7191764990467833</v>
+        <v>0.7254368055456777</v>
       </c>
     </row>
     <row r="9">
@@ -2099,10 +2099,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2.474764553706289e-05</v>
+        <v>-0.002735904977966716</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7854906205386529</v>
+        <v>0.7632976215247168</v>
       </c>
     </row>
     <row r="10">
@@ -2112,10 +2112,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-9.185796150344335e-08</v>
+        <v>-0.1011633715497258</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4487734255977823</v>
+        <v>0.3982142614984124</v>
       </c>
     </row>
     <row r="11">
@@ -2125,10 +2125,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2061092832779085</v>
+        <v>0.2052164518706052</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1118390643997154</v>
+        <v>0.1152008978234617</v>
       </c>
     </row>
     <row r="12">
@@ -2138,10 +2138,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1456188411435601</v>
+        <v>0.1471258857004288</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1273428131369261</v>
+        <v>0.1238186023333474</v>
       </c>
     </row>
     <row r="13">
@@ -2151,10 +2151,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.03824924571736767</v>
+        <v>-0.0007001317493106037</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9680909499879163</v>
+        <v>0.9414256476443237</v>
       </c>
     </row>
     <row r="14">
@@ -2164,10 +2164,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.007736341882487209</v>
+        <v>0.007124740455969155</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8288991392142853</v>
+        <v>0.8425666544037712</v>
       </c>
     </row>
     <row r="15">
@@ -2177,10 +2177,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.0005023889216300639</v>
+        <v>-8.82237952631792e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9656009399421852</v>
+        <v>0.9939531533525742</v>
       </c>
     </row>
     <row r="16">
@@ -2190,10 +2190,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.01867649061887015</v>
+        <v>-0.001342892499285397</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9932515838170938</v>
+        <v>0.9510533918964187</v>
       </c>
     </row>
     <row r="17">
@@ -2203,10 +2203,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3.71085817249684</v>
+        <v>0.035822292169488</v>
       </c>
       <c r="C17" t="n">
-        <v>0.03830849881014967</v>
+        <v>0.04560458422800258</v>
       </c>
     </row>
     <row r="18">
@@ -2216,10 +2216,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-8.830571823345764e-05</v>
+        <v>-0.003602713865709267</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6330638150635943</v>
+        <v>0.7535555024904683</v>
       </c>
     </row>
   </sheetData>
@@ -2265,10 +2265,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-4.002763709585486</v>
+        <v>-3.995978311716252</v>
       </c>
       <c r="C2" t="n">
-        <v>0.08621665644662568</v>
+        <v>0.08716416121155593</v>
       </c>
     </row>
     <row r="3">
@@ -2278,10 +2278,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2737567747118398</v>
+        <v>0.2737597114329327</v>
       </c>
       <c r="C3" t="n">
-        <v>0.004147989657708467</v>
+        <v>0.004151224997566779</v>
       </c>
     </row>
     <row r="4">
@@ -2291,10 +2291,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.000643776911860864</v>
+        <v>0.0006433113755513589</v>
       </c>
       <c r="C4" t="n">
-        <v>4.482595900963302e-10</v>
+        <v>4.624084258199792e-10</v>
       </c>
     </row>
     <row r="5">
@@ -2304,10 +2304,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03048616026167443</v>
+        <v>0.03048392218450655</v>
       </c>
       <c r="C5" t="n">
-        <v>0.000171109594949059</v>
+        <v>0.0001716581462324698</v>
       </c>
     </row>
     <row r="6">
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.06281811708993844</v>
+        <v>0.0623517750422796</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7532792234225565</v>
+        <v>0.7550569774131927</v>
       </c>
     </row>
     <row r="7">
@@ -2330,10 +2330,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5732169568251039</v>
+        <v>0.5723583137505025</v>
       </c>
       <c r="C7" t="n">
-        <v>0.09007939204522228</v>
+        <v>0.09063904112958478</v>
       </c>
     </row>
     <row r="8">
@@ -2343,10 +2343,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.05231084473356302</v>
+        <v>-0.05467987703451065</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9052203990499954</v>
+        <v>0.9010018638672013</v>
       </c>
     </row>
     <row r="9">
@@ -2356,10 +2356,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-4.465124619269012e-05</v>
+        <v>-0.00466582232014398</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6124867770743445</v>
+        <v>0.5955872769784443</v>
       </c>
     </row>
     <row r="10">
@@ -2369,10 +2369,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1.368899384769316e-07</v>
+        <v>-0.1431356142197041</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2538218606997844</v>
+        <v>0.2264660924352832</v>
       </c>
     </row>
     <row r="11">
@@ -2382,10 +2382,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.164527104764439</v>
+        <v>0.1626396193855376</v>
       </c>
       <c r="C11" t="n">
-        <v>0.160824015116356</v>
+        <v>0.1678307960468786</v>
       </c>
     </row>
     <row r="12">
@@ -2395,10 +2395,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.04532674024692056</v>
+        <v>0.04620066967352902</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6123968500623646</v>
+        <v>0.6057548886548783</v>
       </c>
     </row>
     <row r="13">
@@ -2408,10 +2408,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.2718618197813846</v>
+        <v>0.002542882626160378</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7720838901677877</v>
+        <v>0.7857390403619818</v>
       </c>
     </row>
     <row r="14">
@@ -2421,10 +2421,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.009896404137144077</v>
+        <v>-0.01048750499462623</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7773180501715762</v>
+        <v>0.7649323959867839</v>
       </c>
     </row>
     <row r="15">
@@ -2434,10 +2434,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.003690119242973003</v>
+        <v>0.003957456901843855</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7367304572842643</v>
+        <v>0.717413002839745</v>
       </c>
     </row>
     <row r="16">
@@ -2447,10 +2447,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.305758277402554</v>
+        <v>0.01239867472635357</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5489952045352267</v>
+        <v>0.5657453478064142</v>
       </c>
     </row>
     <row r="17">
@@ -2460,10 +2460,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4.214126646982035</v>
+        <v>0.04113153200943704</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01713552733210115</v>
+        <v>0.02006535407584225</v>
       </c>
     </row>
     <row r="18">
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1.406009447593979e-05</v>
+        <v>0.0006027918927313039</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9398990075950951</v>
+        <v>0.958559565237503</v>
       </c>
     </row>
   </sheetData>
@@ -2522,10 +2522,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-4.033857928584744</v>
+        <v>-4.083027695815468</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09945472686632058</v>
+        <v>0.09583295601472071</v>
       </c>
     </row>
     <row r="3">
@@ -2535,10 +2535,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2765322390020736</v>
+        <v>0.2765375547919166</v>
       </c>
       <c r="C3" t="n">
-        <v>0.004248491445391288</v>
+        <v>0.004233984807082568</v>
       </c>
     </row>
     <row r="4">
@@ -2548,10 +2548,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0006302556704903841</v>
+        <v>0.0006295920122791925</v>
       </c>
       <c r="C4" t="n">
-        <v>1.467848328710769e-09</v>
+        <v>1.513916818243698e-09</v>
       </c>
     </row>
     <row r="5">
@@ -2561,10 +2561,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02948127289401729</v>
+        <v>0.02945645909816244</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0002717989237559516</v>
+        <v>0.0002752187499789937</v>
       </c>
     </row>
     <row r="6">
@@ -2574,10 +2574,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.1607390016949884</v>
+        <v>-0.1614003938874204</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4363106344608686</v>
+        <v>0.4343501975660731</v>
       </c>
     </row>
     <row r="7">
@@ -2587,10 +2587,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7478771012125891</v>
+        <v>0.7474181752072648</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0243983021526894</v>
+        <v>0.02457866685167647</v>
       </c>
     </row>
     <row r="8">
@@ -2600,10 +2600,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1605238800286247</v>
+        <v>0.1583268299061739</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7069256670661065</v>
+        <v>0.7109345691450091</v>
       </c>
     </row>
     <row r="9">
@@ -2613,10 +2613,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8.555789031736483e-06</v>
+        <v>0.0005066487378384002</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9246540934847249</v>
+        <v>0.9553012465040926</v>
       </c>
     </row>
     <row r="10">
@@ -2626,10 +2626,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2.088497672798912e-08</v>
+        <v>-0.0323839586671461</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8674729800659102</v>
+        <v>0.7933185571331463</v>
       </c>
     </row>
     <row r="11">
@@ -2639,10 +2639,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2032571041323972</v>
+        <v>0.2045370781699442</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1278091013098085</v>
+        <v>0.127233166441685</v>
       </c>
     </row>
     <row r="12">
@@ -2652,10 +2652,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1047607942686272</v>
+        <v>0.1072506758584158</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2948576419446715</v>
+        <v>0.28400803327192</v>
       </c>
     </row>
     <row r="13">
@@ -2665,10 +2665,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.4863932348963004</v>
+        <v>-0.0052774619956576</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6074310832949603</v>
+        <v>0.5761120100137741</v>
       </c>
     </row>
     <row r="14">
@@ -2678,10 +2678,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.008368376314013017</v>
+        <v>0.008190073237933356</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8212093845295875</v>
+        <v>0.825019513360491</v>
       </c>
     </row>
     <row r="15">
@@ -2691,10 +2691,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0008621028629197544</v>
+        <v>0.001500225236259416</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9415484024747609</v>
+        <v>0.8983746542773151</v>
       </c>
     </row>
     <row r="16">
@@ -2704,10 +2704,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.5452496005112243</v>
+        <v>-0.007085718697302035</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8144256837947862</v>
+        <v>0.7582025916671984</v>
       </c>
     </row>
     <row r="17">
@@ -2717,10 +2717,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3.748030444444999</v>
+        <v>0.0361526407416174</v>
       </c>
       <c r="C17" t="n">
-        <v>0.03997203416884597</v>
+        <v>0.04738565960547208</v>
       </c>
     </row>
     <row r="18">
@@ -2730,10 +2730,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.0001804282755448752</v>
+        <v>-0.009232252563116751</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3336657903451675</v>
+        <v>0.4238920111209888</v>
       </c>
     </row>
   </sheetData>
